--- a/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
+++ b/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.39</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.17</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002580</t>
+          <t>200001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合C</t>
+          <t>长城久恒灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>200001</t>
+          <t>002580</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城久恒灵活配置混合</t>
+          <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +678,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +708,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>540007</t>
+          <t>004666</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘股票</t>
+          <t>长城久嘉创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9498</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +746,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004222</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金信民旺债券A</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>48.26</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +784,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004402</t>
+          <t>200001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金信民旺债券C</t>
+          <t>长城久恒灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>48.26</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +822,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004666</t>
+          <t>004222</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
+          <t>金信民旺债券A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>48.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +860,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>200001</t>
+          <t>004402</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城久恒灵活配置混合</t>
+          <t>金信民旺债券C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>48.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
+++ b/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -895,4 +896,400 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1980</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
+++ b/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1292,4 +1293,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
+++ b/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1501,4 +1502,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
+++ b/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1510,7 +1511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1521,17 +1522,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1541,14 +1562,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1557,14 +1600,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.61</v>
       </c>
     </row>
     <row r="4">
@@ -1573,14 +1638,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.02</v>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1589,13 +1676,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
+++ b/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1757,7 +1758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1768,17 +1769,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1788,14 +1809,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.58</v>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1804,14 +1847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1</v>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1820,14 +1885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.61</v>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1836,14 +1923,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.02</v>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1852,13 +1961,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
+++ b/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2004,7 +2005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,17 +2016,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2035,14 +2056,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2051,14 +2094,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.58</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -2067,14 +2200,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="5">
@@ -2083,14 +2216,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.61</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -2099,14 +2232,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.02</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="7">
@@ -2115,13 +2248,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
+++ b/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,207 +457,281 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9317</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0524</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>200001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城久恒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0297</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -684,7 +758,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -714,36 +788,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004666</t>
+          <t>002863</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
+          <t>金信深圳成长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.92</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9498</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -752,36 +826,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>540007</t>
+          <t>001914</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘股票</t>
+          <t>中信建投聚利混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>39.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0435</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -790,36 +864,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>200001</t>
+          <t>005104</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城久恒灵活配置混合</t>
+          <t>富荣福康混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0184</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -828,36 +902,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004222</t>
+          <t>005105</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金信民旺债券A</t>
+          <t>富荣福康混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>48.26</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -866,32 +940,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004402</t>
+          <t>000041</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金信民旺债券C</t>
+          <t>华夏全球精选股票(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>48.26</t>
+          <t>39.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -903,7 +977,461 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,215 +1827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519929</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长信电子信息行业量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0604</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002863</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金信深圳成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1534,7 +1854,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1564,36 +1884,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160212</t>
+          <t>004666</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰估值优势混合 (LOF)</t>
+          <t>长城久嘉创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4395</t>
+          <t>0.9498</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1602,36 +1922,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020003</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金龙行业混合</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.19</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.54</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4260</t>
+          <t>0.0435</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1640,36 +1960,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001914</t>
+          <t>200001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投聚利混合A</t>
+          <t>长城久恒灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.35</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>39.02</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3798</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1678,32 +1998,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160211</t>
+          <t>004222</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中小盘成长混合(LOF)</t>
+          <t>金信民旺债券A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>48.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3325</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1716,414 +2036,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006845</t>
+          <t>004402</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投聚利混合C</t>
+          <t>金信民旺债券C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>39.02</t>
+          <t>48.26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002863</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金信深圳成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001914</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中信建投聚利混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>39.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005104</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富荣福康混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005105</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富荣福康混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000041</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>39.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005104</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富荣福康混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005105</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富荣福康混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2137,144 +2079,202 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.58</v>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.01</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
+++ b/数据整理/stocks/A股/创业板/300623-捷捷微电.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.58</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.61</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>1.02</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安汇智精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安升级主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014976</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安升级主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -724,252 +1063,6 @@
       </c>
       <c r="H3" t="n">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002863</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金信深圳成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001914</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中信建投聚利混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>39.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005104</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富荣福康混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005105</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富荣福康混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000041</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>39.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1034,32 +1127,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160212</t>
+          <t>002863</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰估值优势混合 (LOF)</t>
+          <t>金信深圳成长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4395</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1072,36 +1165,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020003</t>
+          <t>001914</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金龙行业混合</t>
+          <t>中信建投聚利混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.19</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.54</t>
+          <t>39.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4260</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1110,36 +1203,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001914</t>
+          <t>005104</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投聚利混合A</t>
+          <t>富荣福康混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.35</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>39.02</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3798</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1148,36 +1241,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160211</t>
+          <t>005105</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中小盘成长混合(LOF)</t>
+          <t>富荣福康混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3325</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1186,32 +1279,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006845</t>
+          <t>000041</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投聚利混合C</t>
+          <t>华夏全球精选股票(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>39.02</t>
+          <t>39.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1224,6 +1317,252 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1431,7 +1770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1827,7 +2166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2073,7 +2412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
